--- a/results/mp/tinybert/corona/confidence/126/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,175 +43,172 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>$</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -638,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -688,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4761904761904762</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4642857142857143</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,169 +1003,97 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8046875</v>
+      </c>
+      <c r="L11">
+        <v>103</v>
+      </c>
+      <c r="M11">
+        <v>103</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="K10">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3862660944206008</v>
-      </c>
-      <c r="C11">
-        <v>90</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>143</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>69</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="L13">
-        <v>43</v>
-      </c>
       <c r="M13">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,95 +1105,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>96</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L14">
+        <v>108</v>
+      </c>
+      <c r="M14">
+        <v>108</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>34</v>
       </c>
-      <c r="K14">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>121</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,45 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.05376344086021505</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>176</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7450980392156863</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1408,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1434,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6724137931034483</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1460,47 +1313,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6438356164383562</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1512,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1538,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1564,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1590,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1616,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1642,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.568075117370892</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L29">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="M29">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1668,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.55</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1694,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5333333333333333</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1720,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4861111111111111</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L32">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1746,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4857142857142857</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4651162790697674</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4545454545454545</v>
+        <v>0.3640167364016736</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1824,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4347826086956522</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1850,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3513513513513514</v>
+        <v>0.34375</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1876,47 +1729,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.2894736842105263</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.1851851851851852</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1928,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.02631578947368421</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1954,137 +1807,267 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>444</v>
+        <v>881</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.02439024390243903</v>
+        <v>0.01757689893283114</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>400</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.01154249737670514</v>
+        <v>0.01638672675133142</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>942</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.006036217303822937</v>
+        <v>0.01609883938599775</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1976</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.00572737686139748</v>
+        <v>0.01448598130841122</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>1736</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.005219206680584551</v>
+        <v>0.01141598237532546</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1906</v>
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46">
+        <v>0.01031592520954223</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>37</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.01020881670533643</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>0.88</v>
+      </c>
+      <c r="O47">
+        <v>0.12</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.009267059814658803</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.00855095909406055</v>
+      </c>
+      <c r="L49">
+        <v>37</v>
+      </c>
+      <c r="M49">
+        <v>38</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>0.0065865943432778</v>
+      </c>
+      <c r="L50">
+        <v>34</v>
+      </c>
+      <c r="M50">
+        <v>37</v>
+      </c>
+      <c r="N50">
+        <v>0.92</v>
+      </c>
+      <c r="O50">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5128</v>
       </c>
     </row>
   </sheetData>
